--- a/report/src/main/webapp/template/attendance_report.xlsx
+++ b/report/src/main/webapp/template/attendance_report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="考勤消耗表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>报班单号</t>
   </si>
@@ -34,9 +34,6 @@
     <t>课程校区</t>
   </si>
   <si>
-    <t>是否教材</t>
-  </si>
-  <si>
     <t>金额</t>
   </si>
   <si>
@@ -55,12 +52,6 @@
     <t>老师</t>
   </si>
   <si>
-    <t>辅导老师ID</t>
-  </si>
-  <si>
-    <t>辅导老师</t>
-  </si>
-  <si>
     <t>课程年级</t>
   </si>
   <si>
@@ -103,27 +94,6 @@
     <t>业绩校区</t>
   </si>
   <si>
-    <t>学管师</t>
-  </si>
-  <si>
-    <t>中教</t>
-  </si>
-  <si>
-    <t>中教长度</t>
-  </si>
-  <si>
-    <t>中教备注</t>
-  </si>
-  <si>
-    <t>外教</t>
-  </si>
-  <si>
-    <t>外教长度</t>
-  </si>
-  <si>
-    <t>外教备注</t>
-  </si>
-  <si>
     <t>口语长度</t>
   </si>
   <si>
@@ -154,9 +124,6 @@
     <t>course_branch_name</t>
   </si>
   <si>
-    <t>is_textbookstag</t>
-  </si>
-  <si>
     <t>amount</t>
   </si>
   <si>
@@ -175,12 +142,6 @@
     <t>teacher_name</t>
   </si>
   <si>
-    <t>assteacher_id</t>
-  </si>
-  <si>
-    <t>assteacher_name</t>
-  </si>
-  <si>
     <t>grade_name</t>
   </si>
   <si>
@@ -221,27 +182,6 @@
   </si>
   <si>
     <t>performance_branch_name</t>
-  </si>
-  <si>
-    <t>counselor_name</t>
-  </si>
-  <si>
-    <t>chinese_teacher_name</t>
-  </si>
-  <si>
-    <t>chinese_teacher_length</t>
-  </si>
-  <si>
-    <t>chinese_teacher_remark</t>
-  </si>
-  <si>
-    <t>foreign_teacher_name</t>
-  </si>
-  <si>
-    <t>foreign_teacher_length</t>
-  </si>
-  <si>
-    <t>foreign_teacher_remark</t>
   </si>
   <si>
     <t>spoken_language_hour</t>
@@ -261,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -283,91 +223,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,16 +237,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,32 +319,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +382,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,19 +424,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,139 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +573,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,6 +600,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -662,6 +620,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,24 +665,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -718,168 +673,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1252,38 +1192,31 @@
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="24.25" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="15" width="10.125" customWidth="1"/>
-    <col min="16" max="16" width="12.75" customWidth="1"/>
-    <col min="17" max="17" width="10.375" customWidth="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
-    <col min="21" max="22" width="9.625" customWidth="1"/>
-    <col min="23" max="23" width="17.5" customWidth="1"/>
-    <col min="24" max="24" width="12.125" customWidth="1"/>
-    <col min="25" max="25" width="9.875" customWidth="1"/>
-    <col min="26" max="26" width="13" customWidth="1"/>
-    <col min="27" max="27" width="20.375" customWidth="1"/>
-    <col min="28" max="28" width="9.75" customWidth="1"/>
-    <col min="29" max="29" width="21.625" customWidth="1"/>
-    <col min="30" max="31" width="10.125" customWidth="1"/>
-    <col min="32" max="32" width="23.25" customWidth="1"/>
-    <col min="33" max="33" width="25.875" customWidth="1"/>
-    <col min="34" max="34" width="10.125" customWidth="1"/>
-    <col min="35" max="35" width="24.875" customWidth="1"/>
-    <col min="36" max="36" width="23.75" customWidth="1"/>
-    <col min="37" max="37" width="22.625" customWidth="1"/>
-    <col min="38" max="38" width="15.125" customWidth="1"/>
-    <col min="39" max="39" width="12.625" customWidth="1"/>
-    <col min="40" max="40" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="19" width="9.625" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="12.125" customWidth="1"/>
+    <col min="22" max="22" width="9.875" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="20.375" customWidth="1"/>
+    <col min="25" max="25" width="9.75" customWidth="1"/>
+    <col min="26" max="26" width="21.625" customWidth="1"/>
+    <col min="27" max="27" width="22.625" customWidth="1"/>
+    <col min="28" max="28" width="15.125" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1374,157 +1307,97 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="L2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="N2" t="s">
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AD2" t="s">
         <v>59</v>
-      </c>
-      <c r="U2" t="s">
-        <v>60</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/report/src/main/webapp/template/attendance_report.xlsx
+++ b/report/src/main/webapp/template/attendance_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>报班单号</t>
   </si>
@@ -52,6 +52,9 @@
     <t>老师</t>
   </si>
   <si>
+    <t>合作机构</t>
+  </si>
+  <si>
     <t>课程年级</t>
   </si>
   <si>
@@ -94,12 +97,6 @@
     <t>业绩校区</t>
   </si>
   <si>
-    <t>口语长度</t>
-  </si>
-  <si>
-    <t>教室</t>
-  </si>
-  <si>
     <t>报班备注</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
     <t>teacher_name</t>
   </si>
   <si>
+    <t>coop_org_name</t>
+  </si>
+  <si>
     <t>grade_name</t>
   </si>
   <si>
@@ -182,12 +182,6 @@
   </si>
   <si>
     <t>performance_branch_name</t>
-  </si>
-  <si>
-    <t>spoken_language_hour</t>
-  </si>
-  <si>
-    <t>room_name</t>
   </si>
   <si>
     <t>order_remark</t>
@@ -201,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -219,6 +213,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,6 +239,103 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -245,83 +343,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,45 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,73 +376,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,109 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +618,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -653,173 +667,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,10 +1172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1197,26 +1191,24 @@
     <col min="9" max="9" width="10.625" customWidth="1"/>
     <col min="10" max="10" width="6.125" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
-    <col min="14" max="14" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="19" width="9.625" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="12.125" customWidth="1"/>
-    <col min="22" max="22" width="9.875" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="20.375" customWidth="1"/>
-    <col min="25" max="25" width="9.75" customWidth="1"/>
-    <col min="26" max="26" width="21.625" customWidth="1"/>
-    <col min="27" max="27" width="22.625" customWidth="1"/>
-    <col min="28" max="28" width="15.125" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="20.125" customWidth="1"/>
+    <col min="12" max="13" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="13.75" customWidth="1"/>
+    <col min="18" max="18" width="12.125" customWidth="1"/>
+    <col min="19" max="20" width="9.625" customWidth="1"/>
+    <col min="21" max="21" width="17.5" customWidth="1"/>
+    <col min="22" max="22" width="12.125" customWidth="1"/>
+    <col min="23" max="23" width="9.875" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="20.375" customWidth="1"/>
+    <col min="26" max="26" width="9.75" customWidth="1"/>
+    <col min="27" max="27" width="21.625" customWidth="1"/>
+    <col min="28" max="28" width="12.625" customWidth="1"/>
+    <col min="29" max="29" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,100 +1296,94 @@
       <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>48</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
